--- a/3.3.1/3.3.1.xlsx
+++ b/3.3.1/3.3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений В Гисич\Documents\Top Secret\МФТИ\Лабы\3.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8A48B-7252-49EA-AF30-200C16538057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7510661B-85DE-46DA-8E47-20B22D4F52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{63003699-3790-4AD3-9919-E02C4DD6021A}"/>
   </bookViews>
@@ -107,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -142,8 +142,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0428C188-1A15-4691-B255-211098FE21B4}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,338 +509,376 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.1000000000000001</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0.05</v>
       </c>
-      <c r="E2" s="2">
-        <f>C2/(3000*(10^-4))</f>
-        <v>3.666666666666667</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>D2/C2*E2</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0.05</v>
       </c>
-      <c r="K2" s="2">
-        <f>I2/(3000*(10^-4))</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L2" s="2">
-        <f>J2/I2*K2</f>
-        <v>0.16666666666666669</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="3">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="3">
         <v>0.05</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E9" si="0">C3/(3000*(10^-4))</f>
-        <v>5.3333333333333339</v>
+        <f>C3/(3000*(10^-4))</f>
+        <v>3.666666666666667</v>
       </c>
       <c r="F3" s="2">
-        <f>D3/C3*E3</f>
+        <f t="shared" ref="F2:F10" si="0">D3/C3*E3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="G3" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I3" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>0.05</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K9" si="1">I3/(3000*(10^-4))</f>
-        <v>5</v>
+        <f>I3/(3000*(10^-4))</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L9" si="2">J3/I3*K3</f>
-        <v>0.16666666666666666</v>
+        <f>J3/I3*K3</f>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="3">
         <v>0.05</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000009</v>
+        <f t="shared" ref="E4:E9" si="1">C4/(3000*(10^-4))</f>
+        <v>5.3333333333333339</v>
       </c>
       <c r="F4" s="2">
-        <f>D4/C4*E4</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I4" s="3">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="J4" s="3">
         <v>0.05</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>7.0000000000000009</v>
+        <f t="shared" ref="K4:K10" si="2">I4/(3000*(10^-4))</f>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666669</v>
+        <f t="shared" ref="L4:L10" si="3">J4/I4*K4</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D5" s="3">
         <v>0.05</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666679</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000009</v>
       </c>
       <c r="F5" s="2">
-        <f>D5/C5*E5</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I5" s="3">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="J5" s="3">
         <v>0.05</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>9.0000000000000018</v>
+        <f t="shared" si="2"/>
+        <v>7.0000000000000009</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="3">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D6" s="3">
         <v>0.05</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>10.333333333333334</v>
+        <f t="shared" si="1"/>
+        <v>8.6666666666666679</v>
       </c>
       <c r="F6" s="2">
-        <f>D6/C6*E6</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I6" s="3">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="J6" s="3">
         <v>0.05</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
-        <v>10.666666666666668</v>
+        <f t="shared" si="2"/>
+        <v>9.0000000000000018</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="3">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D7" s="3">
         <v>0.05</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>12.666666666666666</v>
+        <f t="shared" si="1"/>
+        <v>10.333333333333334</v>
       </c>
       <c r="F7" s="2">
-        <f>D7/C7*E7</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G7" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I7" s="3">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J7" s="3">
         <v>0.05</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>12.333333333333334</v>
+        <f t="shared" si="2"/>
+        <v>10.666666666666668</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B8" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="3">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D8" s="3">
         <v>0.05</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>14.000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>12.666666666666666</v>
       </c>
       <c r="F8" s="2">
-        <f>D8/C8*E8</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I8" s="3">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="J8" s="3">
         <v>0.05</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>14.666666666666668</v>
+        <f t="shared" si="2"/>
+        <v>12.333333333333334</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9" s="3">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D9" s="3">
         <v>0.05</v>
       </c>
       <c r="E9" s="2">
-        <f>C9/(3000*(10^-4))</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>14.000000000000002</v>
       </c>
       <c r="F9" s="2">
-        <f>D9/C9*E9</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="G9" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I9" s="3">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J9" s="3">
         <v>0.05</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>14.666666666666668</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="2">
+        <f>C10/(3000*(10^-4))</f>
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
@@ -969,7 +1007,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,11 +1318,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="0">A3*3.5*10</f>
+        <f t="shared" ref="C3:C10" si="0">A3*3.5*10</f>
         <v>3.5000000000000004</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D11" si="1">B3/A3*C3</f>
+        <f t="shared" ref="D3:D10" si="1">B3/A3*C3</f>
         <v>0.17500000000000002</v>
       </c>
       <c r="E3" s="1">
@@ -2209,7 +2247,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,11 +2324,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <f>A4*3.5*10</f>
+        <f t="shared" ref="C4:C10" si="2">A4*3.5*10</f>
         <v>5.25</v>
       </c>
       <c r="D4" s="2">
-        <f>B4/A4*C4</f>
+        <f t="shared" ref="D4:D10" si="3">B4/A4*C4</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="E4" s="1">
@@ -2308,11 +2346,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5" s="2">
-        <f>A5*3.5*10</f>
+        <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="D5" s="2">
-        <f>B5/A5*C5</f>
+        <f t="shared" si="3"/>
         <v>0.17500000000000002</v>
       </c>
       <c r="E5" s="1">
@@ -2330,11 +2368,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="2">
-        <f>A6*3.5*10</f>
+        <f t="shared" si="2"/>
         <v>5.7750000000000004</v>
       </c>
       <c r="D6" s="2">
-        <f>B6/A6*C6</f>
+        <f t="shared" si="3"/>
         <v>0.17500000000000002</v>
       </c>
       <c r="E6" s="1">
@@ -2352,11 +2390,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="2">
-        <f>A7*3.5*10</f>
+        <f t="shared" si="2"/>
         <v>5.9500000000000011</v>
       </c>
       <c r="D7" s="2">
-        <f>B7/A7*C7</f>
+        <f t="shared" si="3"/>
         <v>0.17500000000000002</v>
       </c>
       <c r="E7" s="1">
@@ -2374,11 +2412,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="2">
-        <f>A8*3.5*10</f>
+        <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
       <c r="D8" s="2">
-        <f>B8/A8*C8</f>
+        <f t="shared" si="3"/>
         <v>0.17500000000000002</v>
       </c>
       <c r="E8" s="1">
@@ -2396,11 +2434,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9" s="2">
-        <f>A9*3.5*10</f>
+        <f t="shared" si="2"/>
         <v>6.65</v>
       </c>
       <c r="D9" s="2">
-        <f>B9/A9*C9</f>
+        <f t="shared" si="3"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="E9" s="1">
@@ -2418,11 +2456,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C10" s="2">
-        <f>A10*3.5*10</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="D10" s="2">
-        <f>B10/A10*C10</f>
+        <f t="shared" si="3"/>
         <v>0.17500000000000002</v>
       </c>
       <c r="E10" s="1">

--- a/3.3.1/3.3.1.xlsx
+++ b/3.3.1/3.3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений В Гисич\Documents\Top Secret\МФТИ\Лабы\3.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7510661B-85DE-46DA-8E47-20B22D4F52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EECFA-0EA8-4FAB-917B-444216931F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{63003699-3790-4AD3-9919-E02C4DD6021A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{63003699-3790-4AD3-9919-E02C4DD6021A}"/>
   </bookViews>
   <sheets>
     <sheet name="Магнит_поле" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F2:F10" si="0">D3/C3*E3</f>
+        <f t="shared" ref="F3:F10" si="0">D3/C3*E3</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="G3" s="1">
@@ -889,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337C853-E934-45BF-99DB-FA7664D466BF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,39 +919,39 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.36</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="C3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.36</v>
       </c>
       <c r="F3" s="1">
         <v>5.0000000000000001E-3</v>
@@ -959,19 +959,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="C4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2.73</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F4" s="1">
         <v>5.0000000000000001E-3</v>
@@ -979,21 +979,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>3.42</v>
       </c>
-      <c r="C5" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D5">
+      <c r="C6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>3.52</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -2246,7 +2266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E622C7-F192-4173-93CF-C71908D4A4FE}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
